--- a/Results/xlsx/Result_LV.xlsx
+++ b/Results/xlsx/Result_LV.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-02-26 14:48</t>
+          <t>2021-03-02 19:19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-02-26 14:49</t>
+          <t>2021-03-02 19:18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-02-26 14:48</t>
+          <t>2021-03-02 19:18</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-02-26 14:48</t>
+          <t>2021-03-02 19:18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-02-26 14:49</t>
+          <t>2021-03-02 19:19</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-02-26 14:38</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-02-26 14:51</t>
+          <t>2021-03-01 18:21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2021-02-26 14:35</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:20</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1087,7 +1087,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2021-02-26 14:51</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2021-02-26 14:48</t>
+          <t>2021-03-02 19:18</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2021-02-26 14:26</t>
+          <t>2021-03-02 19:26</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2021-02-26 14:35</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1222,7 +1222,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2021-02-26 14:25</t>
+          <t>2021-03-02 19:25</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2021-02-26 14:53</t>
+          <t>2021-03-02 19:23</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2021-02-26 14:37</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2021-02-26 14:24</t>
+          <t>2021-03-02 19:24</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1330,7 +1330,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2021-02-26 14:35</t>
+          <t>2021-03-02 19:35</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2021-01-29 21:53</t>
+          <t>2021-03-02 19:37</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2021-02-26 14:34</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
